--- a/data/trans_orig/CLASESOCIAL_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_R2-Edad-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Clase social de la persona entrevistada en País Vasco</t>
+          <t>Clase social de la persona entrevistada en País Vasco (tasa de respuesta: 97,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4437,7 +4437,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Clase social de la persona entrevistada en Andalucia</t>
+          <t>Clase social de la persona entrevistada en Andalucia (tasa de respuesta: 98,49%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8328,7 +8328,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Clase social de la persona entrevistada en C.Valenciana</t>
+          <t>Clase social de la persona entrevistada en C.Valenciana (tasa de respuesta: 82,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -12219,7 +12219,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Clase social de la persona entrevistada en Barcelona</t>
+          <t>Clase social de la persona entrevistada en Barcelona (tasa de respuesta: 99,43%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CLASESOCIAL_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_R2-Edad-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>35761</t>
+          <t>44585</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32147</t>
+          <t>40348</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>38931</t>
+          <t>48682</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>57,5%</t>
+          <t>58,41%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>51,69%</t>
+          <t>52,86%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>62,59%</t>
+          <t>63,78%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>36830</t>
+          <t>38416</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>33267</t>
+          <t>34153</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>40224</t>
+          <t>42228</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>60,11%</t>
+          <t>58,46%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>54,3%</t>
+          <t>51,97%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>65,65%</t>
+          <t>64,26%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,22 +806,22 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>72592</t>
+          <t>83001</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>67557</t>
+          <t>77733</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>77787</t>
+          <t>88739</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>58,8%</t>
+          <t>58,43%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>63,0%</t>
+          <t>62,47%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18258</t>
+          <t>21679</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15352</t>
+          <t>18094</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21409</t>
+          <t>25746</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,36%</t>
+          <t>28,4%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,68%</t>
+          <t>23,7%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>34,42%</t>
+          <t>33,73%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15344</t>
+          <t>16253</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12257</t>
+          <t>13103</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18456</t>
+          <t>19416</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>24,73%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>20,0%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>30,12%</t>
+          <t>29,55%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>33602</t>
+          <t>37932</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>29519</t>
+          <t>33010</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>38383</t>
+          <t>43306</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>27,22%</t>
+          <t>26,7%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>23,91%</t>
+          <t>23,24%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>31,09%</t>
+          <t>30,49%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8177</t>
+          <t>10068</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5958</t>
+          <t>7402</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10684</t>
+          <t>13051</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>17,1%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -997,32 +997,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>9095</t>
+          <t>11043</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>6634</t>
+          <t>8127</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>11713</t>
+          <t>14277</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>21,73%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1032,32 +1032,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>17272</t>
+          <t>21112</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>14119</t>
+          <t>17004</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>21081</t>
+          <t>25414</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>11,97%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>17,07%</t>
+          <t>17,89%</t>
         </is>
       </c>
     </row>
@@ -1075,17 +1075,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>62197</t>
+          <t>76333</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>62197</t>
+          <t>76333</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>62197</t>
+          <t>76333</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1110,17 +1110,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>61269</t>
+          <t>65713</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>61269</t>
+          <t>65713</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>61269</t>
+          <t>65713</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1145,17 +1145,17 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>123466</t>
+          <t>142045</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>123466</t>
+          <t>142045</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>123466</t>
+          <t>142045</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1192,32 +1192,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3350</t>
+          <t>4948</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2032</t>
+          <t>3077</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5147</t>
+          <t>7615</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5007</t>
+          <t>6181</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3254</t>
+          <t>4221</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>6998</t>
+          <t>8687</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>8357</t>
+          <t>11128</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>6115</t>
+          <t>8172</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>11024</t>
+          <t>14669</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>10,41%</t>
         </is>
       </c>
     </row>
@@ -1305,32 +1305,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>39446</t>
+          <t>39033</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>35732</t>
+          <t>35058</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>43354</t>
+          <t>43337</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>58,54%</t>
+          <t>54,09%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>53,03%</t>
+          <t>48,58%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>64,34%</t>
+          <t>60,06%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1340,32 +1340,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>27001</t>
+          <t>28156</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>23347</t>
+          <t>24454</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>30438</t>
+          <t>32032</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>42,86%</t>
+          <t>40,99%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>37,06%</t>
+          <t>35,6%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>48,31%</t>
+          <t>46,63%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1375,32 +1375,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>66447</t>
+          <t>67189</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>61413</t>
+          <t>61819</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>71412</t>
+          <t>72784</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>50,96%</t>
+          <t>47,7%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>47,1%</t>
+          <t>43,89%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>54,77%</t>
+          <t>51,67%</t>
         </is>
       </c>
     </row>
@@ -1418,32 +1418,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24584</t>
+          <t>28181</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20714</t>
+          <t>23824</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>28023</t>
+          <t>31954</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>36,49%</t>
+          <t>39,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,74%</t>
+          <t>33,01%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>41,59%</t>
+          <t>44,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1453,32 +1453,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>30997</t>
+          <t>34358</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>27608</t>
+          <t>30446</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>34745</t>
+          <t>37733</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>49,2%</t>
+          <t>50,02%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>43,82%</t>
+          <t>44,32%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>55,15%</t>
+          <t>54,93%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1488,32 +1488,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>55581</t>
+          <t>62539</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>50591</t>
+          <t>57338</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>60410</t>
+          <t>67769</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>42,63%</t>
+          <t>44,4%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>38,8%</t>
+          <t>40,71%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>46,33%</t>
+          <t>48,11%</t>
         </is>
       </c>
     </row>
@@ -1531,17 +1531,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>67381</t>
+          <t>72162</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>67381</t>
+          <t>72162</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>67381</t>
+          <t>72162</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1566,17 +1566,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>63004</t>
+          <t>68694</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>63004</t>
+          <t>68694</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>63004</t>
+          <t>68694</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1601,17 +1601,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>130385</t>
+          <t>140856</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>130385</t>
+          <t>140856</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>130385</t>
+          <t>140856</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1648,32 +1648,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1565</t>
+          <t>1947</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>945</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2941</t>
+          <t>3942</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1683,32 +1683,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2683</t>
+          <t>2583</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>1545</t>
+          <t>1483</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>4599</t>
+          <t>4344</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1718,32 +1718,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>4248</t>
+          <t>4530</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>2784</t>
+          <t>2840</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>6449</t>
+          <t>6912</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,27%</t>
         </is>
       </c>
     </row>
@@ -1761,32 +1761,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>54485</t>
+          <t>56406</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>50318</t>
+          <t>51856</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>58776</t>
+          <t>60928</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>58,35%</t>
+          <t>55,25%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>53,89%</t>
+          <t>50,79%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>62,94%</t>
+          <t>59,67%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1796,32 +1796,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>44868</t>
+          <t>47458</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>40393</t>
+          <t>42696</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>48987</t>
+          <t>52012</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>46,32%</t>
+          <t>43,46%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>41,7%</t>
+          <t>39,1%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>50,58%</t>
+          <t>47,63%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1831,32 +1831,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>99353</t>
+          <t>103864</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>92790</t>
+          <t>96578</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>105264</t>
+          <t>110472</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>52,23%</t>
+          <t>49,15%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>48,78%</t>
+          <t>45,71%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>55,33%</t>
+          <t>52,28%</t>
         </is>
       </c>
     </row>
@@ -1874,32 +1874,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>37326</t>
+          <t>43748</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>33193</t>
+          <t>39291</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>41591</t>
+          <t>48248</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>39,97%</t>
+          <t>42,85%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>35,55%</t>
+          <t>38,48%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>44,54%</t>
+          <t>47,26%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1909,32 +1909,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>49307</t>
+          <t>59162</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>45237</t>
+          <t>54494</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>53862</t>
+          <t>63945</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>50,91%</t>
+          <t>54,18%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>46,71%</t>
+          <t>49,9%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>55,61%</t>
+          <t>58,56%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1944,32 +1944,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>86633</t>
+          <t>102911</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>80690</t>
+          <t>96309</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>92685</t>
+          <t>109865</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>45,54%</t>
+          <t>48,7%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>42,42%</t>
+          <t>45,58%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>48,72%</t>
+          <t>51,99%</t>
         </is>
       </c>
     </row>
@@ -1987,17 +1987,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>93377</t>
+          <t>102101</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>93377</t>
+          <t>102101</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>93377</t>
+          <t>102101</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2022,17 +2022,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>96857</t>
+          <t>109204</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>96857</t>
+          <t>109204</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>96857</t>
+          <t>109204</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2057,17 +2057,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>190234</t>
+          <t>211305</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>190234</t>
+          <t>211305</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>190234</t>
+          <t>211305</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2104,22 +2104,22 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1766</t>
+          <t>1826</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>871</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3404</t>
+          <t>3542</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2139,32 +2139,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4233</t>
+          <t>4445</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>2698</t>
+          <t>2732</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>6357</t>
+          <t>6725</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2174,32 +2174,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>5999</t>
+          <t>6270</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>4130</t>
+          <t>4305</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>8713</t>
+          <t>8885</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>3,03%</t>
         </is>
       </c>
     </row>
@@ -2217,32 +2217,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>83916</t>
+          <t>82597</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>78470</t>
+          <t>77499</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>88843</t>
+          <t>87742</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>61,1%</t>
+          <t>57,59%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>57,14%</t>
+          <t>54,04%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>64,69%</t>
+          <t>61,18%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2252,32 +2252,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>66800</t>
+          <t>69355</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>61127</t>
+          <t>64362</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>71756</t>
+          <t>74808</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>49,41%</t>
+          <t>46,3%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>45,21%</t>
+          <t>42,96%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>53,07%</t>
+          <t>49,94%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2287,32 +2287,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>150716</t>
+          <t>151952</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>143977</t>
+          <t>144066</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>158010</t>
+          <t>159321</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>55,3%</t>
+          <t>51,82%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>52,83%</t>
+          <t>49,13%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>57,98%</t>
+          <t>54,33%</t>
         </is>
       </c>
     </row>
@@ -2330,32 +2330,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>51651</t>
+          <t>58992</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>47026</t>
+          <t>53849</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>57366</t>
+          <t>64192</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>37,61%</t>
+          <t>41,13%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>34,24%</t>
+          <t>37,55%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>41,77%</t>
+          <t>44,76%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2365,32 +2365,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>64167</t>
+          <t>76009</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>59367</t>
+          <t>70348</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>69789</t>
+          <t>81396</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>47,46%</t>
+          <t>50,74%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>43,91%</t>
+          <t>46,96%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>51,62%</t>
+          <t>54,33%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2400,32 +2400,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>115817</t>
+          <t>135002</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>108891</t>
+          <t>128097</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>123071</t>
+          <t>143213</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>42,5%</t>
+          <t>46,04%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>39,95%</t>
+          <t>43,69%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>45,16%</t>
+          <t>48,84%</t>
         </is>
       </c>
     </row>
@@ -2443,17 +2443,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>137333</t>
+          <t>143415</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>137333</t>
+          <t>143415</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>137333</t>
+          <t>143415</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2478,17 +2478,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>135200</t>
+          <t>149809</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>135200</t>
+          <t>149809</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>135200</t>
+          <t>149809</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2513,17 +2513,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>272533</t>
+          <t>293224</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>272533</t>
+          <t>293224</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>272533</t>
+          <t>293224</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2560,32 +2560,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>894</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3779</t>
+          <t>3618</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2595,32 +2595,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>9549</t>
+          <t>9616</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>7258</t>
+          <t>7131</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>12624</t>
+          <t>12483</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2630,32 +2630,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>11509</t>
+          <t>11584</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>8815</t>
+          <t>8657</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>14883</t>
+          <t>14773</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,38%</t>
         </is>
       </c>
     </row>
@@ -2673,32 +2673,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>68027</t>
+          <t>65941</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>63144</t>
+          <t>60810</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>72845</t>
+          <t>71220</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>54,9%</t>
+          <t>52,18%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>50,96%</t>
+          <t>48,12%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>58,79%</t>
+          <t>56,36%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2708,32 +2708,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>75656</t>
+          <t>71088</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>69758</t>
+          <t>66473</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>80795</t>
+          <t>76996</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>52,5%</t>
+          <t>47,92%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>48,41%</t>
+          <t>44,81%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>56,07%</t>
+          <t>51,9%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2743,32 +2743,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>143683</t>
+          <t>137029</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>136537</t>
+          <t>129389</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>151241</t>
+          <t>144164</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>53,61%</t>
+          <t>49,88%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>50,94%</t>
+          <t>47,1%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>56,43%</t>
+          <t>52,48%</t>
         </is>
       </c>
     </row>
@@ -2786,32 +2786,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>53920</t>
+          <t>58454</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>49054</t>
+          <t>53297</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>58690</t>
+          <t>63942</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>43,52%</t>
+          <t>46,26%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>39,59%</t>
+          <t>42,18%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>47,37%</t>
+          <t>50,6%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2821,32 +2821,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>58900</t>
+          <t>67648</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>53713</t>
+          <t>62135</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>64576</t>
+          <t>72596</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>40,87%</t>
+          <t>45,6%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>37,27%</t>
+          <t>41,88%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>44,81%</t>
+          <t>48,94%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2856,32 +2856,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>112820</t>
+          <t>126101</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>105974</t>
+          <t>118426</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>119695</t>
+          <t>133472</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>42,1%</t>
+          <t>45,9%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>39,54%</t>
+          <t>43,11%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>44,66%</t>
+          <t>48,59%</t>
         </is>
       </c>
     </row>
@@ -2899,17 +2899,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>123907</t>
+          <t>126362</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>123907</t>
+          <t>126362</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>123907</t>
+          <t>126362</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2934,17 +2934,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>144105</t>
+          <t>148352</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>144105</t>
+          <t>148352</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>144105</t>
+          <t>148352</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2969,17 +2969,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>268012</t>
+          <t>274714</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>268012</t>
+          <t>274714</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>268012</t>
+          <t>274714</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3016,32 +3016,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>595</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>207</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1912</t>
+          <t>1554</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3051,32 +3051,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>15762</t>
+          <t>17624</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>13064</t>
+          <t>14631</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>18945</t>
+          <t>21110</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>13,91%</t>
+          <t>15,52%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3086,32 +3086,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>16560</t>
+          <t>18219</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>13452</t>
+          <t>14806</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>20139</t>
+          <t>21508</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>10,0%</t>
         </is>
       </c>
     </row>
@@ -3129,32 +3129,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>67023</t>
+          <t>59694</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>62572</t>
+          <t>55327</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>71430</t>
+          <t>63621</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>63,78%</t>
+          <t>58,8%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>59,55%</t>
+          <t>54,49%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>67,98%</t>
+          <t>62,66%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3164,32 +3164,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>57377</t>
+          <t>53836</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>53206</t>
+          <t>49512</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>62655</t>
+          <t>58869</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>50,62%</t>
+          <t>47,4%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>46,94%</t>
+          <t>43,6%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>55,28%</t>
+          <t>51,83%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3199,32 +3199,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>124400</t>
+          <t>113530</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>118656</t>
+          <t>107402</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>131318</t>
+          <t>119687</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>56,95%</t>
+          <t>52,78%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>54,32%</t>
+          <t>49,93%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>60,12%</t>
+          <t>55,64%</t>
         </is>
       </c>
     </row>
@@ -3242,32 +3242,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>37260</t>
+          <t>41239</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>33050</t>
+          <t>37308</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>41427</t>
+          <t>45524</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>35,46%</t>
+          <t>40,62%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>31,45%</t>
+          <t>36,75%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>39,42%</t>
+          <t>44,84%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3277,32 +3277,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>40206</t>
+          <t>42111</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>35721</t>
+          <t>37602</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>44781</t>
+          <t>46639</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>35,47%</t>
+          <t>37,08%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>31,52%</t>
+          <t>33,11%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>39,51%</t>
+          <t>41,07%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3312,32 +3312,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>77466</t>
+          <t>83350</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>71353</t>
+          <t>77185</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>83400</t>
+          <t>89772</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>35,47%</t>
+          <t>38,75%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>32,67%</t>
+          <t>35,88%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>38,18%</t>
+          <t>41,74%</t>
         </is>
       </c>
     </row>
@@ -3355,17 +3355,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>105081</t>
+          <t>101528</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>105081</t>
+          <t>101528</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>105081</t>
+          <t>101528</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3390,17 +3390,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>113345</t>
+          <t>113571</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>113345</t>
+          <t>113571</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>113345</t>
+          <t>113571</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3425,17 +3425,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>218426</t>
+          <t>215099</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>218426</t>
+          <t>215099</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>218426</t>
+          <t>215099</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3472,32 +3472,32 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>521</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>110</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1659</t>
+          <t>1286</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3507,32 +3507,32 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>44798</t>
+          <t>44807</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>40145</t>
+          <t>40521</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>50087</t>
+          <t>50046</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>33,67%</t>
+          <t>34,01%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>30,17%</t>
+          <t>30,76%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>37,65%</t>
+          <t>37,99%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3542,32 +3542,32 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>45459</t>
+          <t>45328</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>40150</t>
+          <t>40274</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>51139</t>
+          <t>50279</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>20,58%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>17,54%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>22,34%</t>
+          <t>22,83%</t>
         </is>
       </c>
     </row>
@@ -3585,32 +3585,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>66441</t>
+          <t>59738</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>62287</t>
+          <t>55511</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>70200</t>
+          <t>63117</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>69,3%</t>
+          <t>67,48%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>64,97%</t>
+          <t>62,7%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>73,22%</t>
+          <t>71,29%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3620,32 +3620,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>65998</t>
+          <t>63047</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>60548</t>
+          <t>57935</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>70861</t>
+          <t>67614</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>49,6%</t>
+          <t>47,86%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>45,51%</t>
+          <t>43,98%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>53,26%</t>
+          <t>51,32%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3655,32 +3655,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>132439</t>
+          <t>122784</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>125951</t>
+          <t>117014</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>138711</t>
+          <t>129460</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>57,85%</t>
+          <t>55,74%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>55,02%</t>
+          <t>53,12%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>60,59%</t>
+          <t>58,77%</t>
         </is>
       </c>
     </row>
@@ -3698,32 +3698,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>28774</t>
+          <t>28272</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>25022</t>
+          <t>24845</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>32914</t>
+          <t>32321</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>30,01%</t>
+          <t>31,93%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>26,1%</t>
+          <t>28,06%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>34,33%</t>
+          <t>36,51%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3733,32 +3733,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>22251</t>
+          <t>23888</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>19050</t>
+          <t>20423</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>26176</t>
+          <t>28220</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>18,13%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>19,67%</t>
+          <t>21,42%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3768,32 +3768,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>51025</t>
+          <t>52159</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>45986</t>
+          <t>47140</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>56427</t>
+          <t>57619</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>23,68%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>20,09%</t>
+          <t>21,4%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>24,65%</t>
+          <t>26,16%</t>
         </is>
       </c>
     </row>
@@ -3811,17 +3811,17 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>95876</t>
+          <t>88531</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>95876</t>
+          <t>88531</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>95876</t>
+          <t>88531</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3846,17 +3846,17 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>133047</t>
+          <t>131741</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>133047</t>
+          <t>131741</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>133047</t>
+          <t>131741</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3881,17 +3881,17 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>228923</t>
+          <t>220272</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>228923</t>
+          <t>220272</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>228923</t>
+          <t>220272</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -3928,32 +3928,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>45862</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>39993</t>
+          <t>49162</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>51680</t>
+          <t>63938</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3963,32 +3963,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>118862</t>
+          <t>123672</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>110085</t>
+          <t>114942</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>127724</t>
+          <t>133026</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>14,6%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3998,32 +3998,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>164724</t>
+          <t>180061</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>153962</t>
+          <t>169148</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>175930</t>
+          <t>192821</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>12,88%</t>
         </is>
       </c>
     </row>
@@ -4041,32 +4041,32 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>397597</t>
+          <t>385086</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>387088</t>
+          <t>373011</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>410017</t>
+          <t>397964</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>58,03%</t>
+          <t>54,2%</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>56,5%</t>
+          <t>52,5%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>59,84%</t>
+          <t>56,02%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -4076,32 +4076,32 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>353043</t>
+          <t>349193</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>340890</t>
+          <t>336771</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>364738</t>
+          <t>361152</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>47,27%</t>
+          <t>44,37%</t>
         </is>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>45,65%</t>
+          <t>42,79%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>48,84%</t>
+          <t>45,88%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -4111,32 +4111,32 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>750640</t>
+          <t>734280</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>733513</t>
+          <t>716782</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>766526</t>
+          <t>750938</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>52,42%</t>
+          <t>49,03%</t>
         </is>
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>51,22%</t>
+          <t>47,86%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>53,53%</t>
+          <t>50,15%</t>
         </is>
       </c>
     </row>
@@ -4154,32 +4154,32 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>241693</t>
+          <t>268953</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>230203</t>
+          <t>256477</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>252162</t>
+          <t>280571</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>35,28%</t>
+          <t>37,86%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>33,6%</t>
+          <t>36,1%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>36,8%</t>
+          <t>39,49%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4189,32 +4189,32 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>274921</t>
+          <t>314220</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>263363</t>
+          <t>301961</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>288216</t>
+          <t>325741</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>36,81%</t>
+          <t>39,92%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>35,26%</t>
+          <t>38,36%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>38,59%</t>
+          <t>41,39%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4224,32 +4224,32 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>516614</t>
+          <t>583173</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>501155</t>
+          <t>567559</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>533270</t>
+          <t>600716</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>36,08%</t>
+          <t>38,94%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>35,0%</t>
+          <t>37,9%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>37,24%</t>
+          <t>40,11%</t>
         </is>
       </c>
     </row>
@@ -4267,17 +4267,17 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>685152</t>
+          <t>710429</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>685152</t>
+          <t>710429</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>685152</t>
+          <t>710429</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -4302,17 +4302,17 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>746826</t>
+          <t>787085</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>746826</t>
+          <t>787085</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>746826</t>
+          <t>787085</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -4337,17 +4337,17 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>1431978</t>
+          <t>1497515</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>1431978</t>
+          <t>1497515</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>1431978</t>
+          <t>1497515</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -4632,12 +4632,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>115396</t>
+          <t>113898</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>166390</t>
+          <t>167578</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -4647,12 +4647,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>48,85%</t>
+          <t>48,21%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>70,43%</t>
+          <t>70,94%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -4667,12 +4667,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>99062</t>
+          <t>97437</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>134085</t>
+          <t>134169</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -4682,12 +4682,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>53,78%</t>
+          <t>52,9%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>72,8%</t>
+          <t>72,84%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -4702,12 +4702,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>230276</t>
+          <t>226860</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>292760</t>
+          <t>290531</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -4717,12 +4717,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>54,77%</t>
+          <t>53,96%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>69,63%</t>
+          <t>69,1%</t>
         </is>
       </c>
     </row>
@@ -4745,12 +4745,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>48558</t>
+          <t>47003</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>98087</t>
+          <t>95438</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -4760,12 +4760,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>19,9%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>41,52%</t>
+          <t>40,4%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -4780,12 +4780,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>32312</t>
+          <t>31918</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>63019</t>
+          <t>62947</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -4795,12 +4795,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>17,54%</t>
+          <t>17,33%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>34,21%</t>
+          <t>34,17%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -4815,12 +4815,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>84578</t>
+          <t>90204</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>143205</t>
+          <t>145901</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -4830,12 +4830,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>20,12%</t>
+          <t>21,46%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>34,06%</t>
+          <t>34,7%</t>
         </is>
       </c>
     </row>
@@ -4858,12 +4858,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10698</t>
+          <t>11143</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>42822</t>
+          <t>45069</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -4873,12 +4873,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>18,13%</t>
+          <t>19,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -4893,12 +4893,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>11894</t>
+          <t>13065</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>35652</t>
+          <t>36457</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4908,12 +4908,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>19,79%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -4928,12 +4928,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>28857</t>
+          <t>29969</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>66935</t>
+          <t>70669</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4943,12 +4943,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>16,81%</t>
         </is>
       </c>
     </row>
@@ -5088,12 +5088,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3350</t>
+          <t>3131</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18903</t>
+          <t>18310</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -5103,12 +5103,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -5123,12 +5123,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>21965</t>
+          <t>17978</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>65702</t>
+          <t>63704</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -5138,12 +5138,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>21,15%</t>
+          <t>20,51%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -5158,12 +5158,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>31381</t>
+          <t>32602</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>72620</t>
+          <t>72120</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -5173,12 +5173,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>13,39%</t>
         </is>
       </c>
     </row>
@@ -5201,12 +5201,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>108333</t>
+          <t>112425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>149771</t>
+          <t>149871</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -5216,12 +5216,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>47,55%</t>
+          <t>49,34%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>65,73%</t>
+          <t>65,78%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -5236,12 +5236,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>129764</t>
+          <t>132662</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>236607</t>
+          <t>251505</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -5251,12 +5251,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>41,77%</t>
+          <t>42,7%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>76,16%</t>
+          <t>80,95%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -5271,12 +5271,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>264842</t>
+          <t>265701</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>387575</t>
+          <t>392749</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -5286,12 +5286,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>49,18%</t>
+          <t>49,34%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>71,97%</t>
+          <t>72,93%</t>
         </is>
       </c>
     </row>
@@ -5314,12 +5314,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>68948</t>
+          <t>70073</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>109503</t>
+          <t>106557</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -5329,12 +5329,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,26%</t>
+          <t>30,75%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>48,06%</t>
+          <t>46,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -5349,12 +5349,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>46810</t>
+          <t>41927</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>124348</t>
+          <t>123738</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -5364,12 +5364,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>15,07%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>40,03%</t>
+          <t>39,83%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -5384,12 +5384,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>118679</t>
+          <t>110307</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>214219</t>
+          <t>212363</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -5399,12 +5399,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>39,78%</t>
+          <t>39,43%</t>
         </is>
       </c>
     </row>
@@ -5544,12 +5544,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>167</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7287</t>
+          <t>7433</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -5559,12 +5559,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -5579,12 +5579,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>13748</t>
+          <t>14335</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>28033</t>
+          <t>28281</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -5594,12 +5594,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -5614,12 +5614,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>16007</t>
+          <t>15894</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>32118</t>
+          <t>31216</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -5629,12 +5629,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>4,99%</t>
         </is>
       </c>
     </row>
@@ -5657,12 +5657,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>145360</t>
+          <t>142346</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>179952</t>
+          <t>179569</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -5672,12 +5672,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>47,04%</t>
+          <t>46,06%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>58,23%</t>
+          <t>58,11%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -5692,12 +5692,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>155215</t>
+          <t>157577</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>184770</t>
+          <t>185849</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -5707,12 +5707,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>49,13%</t>
+          <t>49,88%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>58,48%</t>
+          <t>58,82%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -5727,12 +5727,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>309528</t>
+          <t>309307</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>357738</t>
+          <t>356695</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -5742,12 +5742,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>49,53%</t>
+          <t>49,49%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>57,24%</t>
+          <t>57,07%</t>
         </is>
       </c>
     </row>
@@ -5770,12 +5770,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>126423</t>
+          <t>126535</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>161284</t>
+          <t>163820</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -5785,12 +5785,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>40,91%</t>
+          <t>40,95%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>52,19%</t>
+          <t>53,01%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -5805,12 +5805,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>111266</t>
+          <t>109525</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>140585</t>
+          <t>137225</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -5820,12 +5820,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>35,22%</t>
+          <t>34,67%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>44,5%</t>
+          <t>43,43%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -5840,12 +5840,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>245810</t>
+          <t>244265</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>292824</t>
+          <t>293406</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -5855,12 +5855,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>39,33%</t>
+          <t>39,08%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>46,85%</t>
+          <t>46,95%</t>
         </is>
       </c>
     </row>
@@ -6000,12 +6000,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>21016</t>
+          <t>21698</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -6015,12 +6015,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -6035,12 +6035,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>35786</t>
+          <t>36673</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>56944</t>
+          <t>57727</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -6050,12 +6050,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -6070,12 +6070,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>25761</t>
+          <t>26031</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>79393</t>
+          <t>79487</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -6085,12 +6085,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>7,77%</t>
         </is>
       </c>
     </row>
@@ -6113,12 +6113,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>328726</t>
+          <t>326710</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>562430</t>
+          <t>565075</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -6128,12 +6128,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>52,85%</t>
+          <t>52,53%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>90,43%</t>
+          <t>90,85%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -6148,12 +6148,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>175739</t>
+          <t>175076</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>208763</t>
+          <t>207260</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -6163,12 +6163,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>43,85%</t>
+          <t>43,69%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>52,1%</t>
+          <t>51,72%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -6183,12 +6183,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>510387</t>
+          <t>509367</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>837243</t>
+          <t>837356</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -6198,12 +6198,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>49,91%</t>
+          <t>49,81%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>81,86%</t>
+          <t>81,88%</t>
         </is>
       </c>
     </row>
@@ -6226,12 +6226,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>55686</t>
+          <t>54468</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>278648</t>
+          <t>280235</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -6241,12 +6241,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>44,8%</t>
+          <t>45,06%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -6261,12 +6261,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>146151</t>
+          <t>147266</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>177191</t>
+          <t>180231</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -6276,12 +6276,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>36,47%</t>
+          <t>36,75%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>44,22%</t>
+          <t>44,98%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -6296,12 +6296,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>157146</t>
+          <t>154819</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>438384</t>
+          <t>439180</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -6311,12 +6311,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
+          <t>15,14%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>42,86%</t>
+          <t>42,94%</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2697</t>
+          <t>2711</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -6491,12 +6491,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>49665</t>
+          <t>50111</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>70723</t>
+          <t>71140</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -6506,12 +6506,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>22,41%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -6526,12 +6526,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>50134</t>
+          <t>50389</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>74076</t>
+          <t>74379</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -6541,12 +6541,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>11,43%</t>
         </is>
       </c>
     </row>
@@ -6569,12 +6569,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>168472</t>
+          <t>168621</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>201984</t>
+          <t>202820</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -6584,12 +6584,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>50,53%</t>
+          <t>50,58%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>60,58%</t>
+          <t>60,83%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -6604,12 +6604,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>149598</t>
+          <t>147215</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>176633</t>
+          <t>174318</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -6619,12 +6619,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>47,12%</t>
+          <t>46,37%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>55,64%</t>
+          <t>54,91%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -6639,12 +6639,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>325367</t>
+          <t>325077</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>368911</t>
+          <t>368256</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -6654,12 +6654,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>49,99%</t>
+          <t>49,95%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>56,68%</t>
+          <t>56,58%</t>
         </is>
       </c>
     </row>
@@ -6682,12 +6682,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>130814</t>
+          <t>129852</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>164482</t>
+          <t>164671</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -6697,12 +6697,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>39,24%</t>
+          <t>38,95%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>49,33%</t>
+          <t>49,39%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -6717,12 +6717,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>82024</t>
+          <t>84067</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>106892</t>
+          <t>107636</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -6732,12 +6732,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>25,84%</t>
+          <t>26,48%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>33,67%</t>
+          <t>33,9%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -6752,12 +6752,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>221791</t>
+          <t>221091</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>263586</t>
+          <t>263208</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -6767,12 +6767,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>34,08%</t>
+          <t>33,97%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>40,5%</t>
+          <t>40,44%</t>
         </is>
       </c>
     </row>
@@ -6912,12 +6912,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>476</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>4560</t>
+          <t>4518</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6927,12 +6927,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -6947,12 +6947,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>26965</t>
+          <t>25845</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>155023</t>
+          <t>155623</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6962,12 +6962,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>34,5%</t>
+          <t>34,64%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -6982,12 +6982,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>31632</t>
+          <t>32613</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>127514</t>
+          <t>126299</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6997,12 +6997,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>19,35%</t>
         </is>
       </c>
     </row>
@@ -7025,12 +7025,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>96644</t>
+          <t>96293</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>118366</t>
+          <t>118442</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -7040,12 +7040,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>47,51%</t>
+          <t>47,34%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>58,19%</t>
+          <t>58,23%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -7060,12 +7060,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>184036</t>
+          <t>184328</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>402125</t>
+          <t>402299</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -7075,12 +7075,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>40,96%</t>
+          <t>41,02%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>89,5%</t>
+          <t>89,54%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -7095,12 +7095,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>297658</t>
+          <t>300026</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>555065</t>
+          <t>553862</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -7110,12 +7110,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>45,6%</t>
+          <t>45,97%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>85,04%</t>
+          <t>84,86%</t>
         </is>
       </c>
     </row>
@@ -7138,12 +7138,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>83577</t>
+          <t>82736</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>105374</t>
+          <t>106173</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -7153,12 +7153,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>41,09%</t>
+          <t>40,68%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>51,81%</t>
+          <t>52,2%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -7173,12 +7173,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>20254</t>
+          <t>19586</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>115069</t>
+          <t>116701</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -7188,12 +7188,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>25,61%</t>
+          <t>25,97%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -7208,12 +7208,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>63342</t>
+          <t>62748</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>233267</t>
+          <t>231054</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -7223,12 +7223,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>35,74%</t>
+          <t>35,4%</t>
         </is>
       </c>
     </row>
@@ -7373,7 +7373,7 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>4006</t>
+          <t>4591</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -7388,7 +7388,7 @@
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -7403,12 +7403,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>111645</t>
+          <t>110716</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>133468</t>
+          <t>133966</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -7418,12 +7418,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>47,93%</t>
+          <t>47,53%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>57,3%</t>
+          <t>57,52%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -7438,12 +7438,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>111702</t>
+          <t>110414</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>136866</t>
+          <t>137236</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -7453,12 +7453,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>29,22%</t>
+          <t>28,88%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>35,8%</t>
+          <t>35,9%</t>
         </is>
       </c>
     </row>
@@ -7481,12 +7481,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>73414</t>
+          <t>74224</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>93281</t>
+          <t>92893</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -7496,12 +7496,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>49,14%</t>
+          <t>49,69%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>62,44%</t>
+          <t>62,18%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -7516,12 +7516,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>62649</t>
+          <t>61579</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>81772</t>
+          <t>83091</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -7531,12 +7531,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>26,9%</t>
+          <t>26,44%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>35,11%</t>
+          <t>35,67%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -7551,12 +7551,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>141299</t>
+          <t>140065</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>169955</t>
+          <t>168516</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -7566,12 +7566,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>36,96%</t>
+          <t>36,64%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>44,46%</t>
+          <t>44,08%</t>
         </is>
       </c>
     </row>
@@ -7594,12 +7594,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>54992</t>
+          <t>55337</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>74746</t>
+          <t>74292</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -7609,12 +7609,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>36,81%</t>
+          <t>37,04%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>50,04%</t>
+          <t>49,73%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -7629,12 +7629,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>30747</t>
+          <t>30151</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>48053</t>
+          <t>46716</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -7644,12 +7644,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>12,94%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>20,63%</t>
+          <t>20,06%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -7664,12 +7664,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>90956</t>
+          <t>91273</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>117320</t>
+          <t>118102</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -7679,12 +7679,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>23,79%</t>
+          <t>23,87%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>30,69%</t>
+          <t>30,89%</t>
         </is>
       </c>
     </row>
@@ -7824,12 +7824,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>107189</t>
+          <t>102825</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>218202</t>
+          <t>212388</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -7839,12 +7839,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -7859,12 +7859,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>353872</t>
+          <t>341606</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>564580</t>
+          <t>561174</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -7874,12 +7874,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>15,45%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>25,53%</t>
+          <t>25,38%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -7894,12 +7894,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>523691</t>
+          <t>530831</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>755905</t>
+          <t>742398</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -7909,12 +7909,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>17,3%</t>
         </is>
       </c>
     </row>
@@ -7937,12 +7937,12 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>1053384</t>
+          <t>1054977</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>1474606</t>
+          <t>1457475</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -7952,12 +7952,12 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>50,61%</t>
+          <t>50,69%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>70,85%</t>
+          <t>70,03%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -7972,12 +7972,12 @@
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>983631</t>
+          <t>988165</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>1460542</t>
+          <t>1459567</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -7987,12 +7987,12 @@
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>44,48%</t>
+          <t>44,69%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>66,05%</t>
+          <t>66,01%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -8007,12 +8007,12 @@
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>2072520</t>
+          <t>2085724</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>2731880</t>
+          <t>2752818</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -8022,12 +8022,12 @@
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>48,28%</t>
+          <t>48,59%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>63,64%</t>
+          <t>64,13%</t>
         </is>
       </c>
     </row>
@@ -8050,12 +8050,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>493804</t>
+          <t>522553</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>834645</t>
+          <t>838379</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -8065,12 +8065,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>23,73%</t>
+          <t>25,11%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>40,1%</t>
+          <t>40,28%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -8085,12 +8085,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>405097</t>
+          <t>421865</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>672683</t>
+          <t>672658</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>18,32%</t>
+          <t>19,08%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
@@ -8120,12 +8120,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>1050730</t>
+          <t>1042946</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>1480705</t>
+          <t>1473801</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -8135,12 +8135,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>24,48%</t>
+          <t>24,3%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>34,5%</t>
+          <t>34,33%</t>
         </is>
       </c>
     </row>
@@ -12414,12 +12414,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18499</t>
+          <t>18792</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28472</t>
+          <t>29365</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -12429,12 +12429,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,6%</t>
+          <t>29,06%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>44,02%</t>
+          <t>45,41%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -12449,12 +12449,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>18709</t>
+          <t>18644</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>28798</t>
+          <t>28926</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -12464,12 +12464,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>30,4%</t>
+          <t>30,3%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>46,8%</t>
+          <t>47,0%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -12484,12 +12484,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>39730</t>
+          <t>39586</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>54075</t>
+          <t>54290</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -12499,12 +12499,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>31,48%</t>
+          <t>31,36%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>42,84%</t>
+          <t>43,01%</t>
         </is>
       </c>
     </row>
@@ -12527,12 +12527,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16163</t>
+          <t>16084</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26611</t>
+          <t>27125</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -12542,12 +12542,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,99%</t>
+          <t>24,87%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>41,15%</t>
+          <t>41,94%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -12562,12 +12562,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13272</t>
+          <t>13309</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23498</t>
+          <t>23586</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -12577,12 +12577,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>21,57%</t>
+          <t>21,63%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>38,18%</t>
+          <t>38,33%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -12597,12 +12597,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>31758</t>
+          <t>32570</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>47770</t>
+          <t>47096</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -12612,12 +12612,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>25,16%</t>
+          <t>25,81%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>37,85%</t>
+          <t>37,31%</t>
         </is>
       </c>
     </row>
@@ -12640,12 +12640,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15584</t>
+          <t>15149</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25420</t>
+          <t>25520</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -12655,12 +12655,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,1%</t>
+          <t>23,42%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>39,3%</t>
+          <t>39,46%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -12675,12 +12675,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>15583</t>
+          <t>15508</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>25098</t>
+          <t>24593</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -12690,12 +12690,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>25,32%</t>
+          <t>25,2%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>40,78%</t>
+          <t>39,96%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -12710,12 +12710,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>32823</t>
+          <t>33557</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>47666</t>
+          <t>48597</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -12725,12 +12725,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>26,01%</t>
+          <t>26,59%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>37,77%</t>
+          <t>38,5%</t>
         </is>
       </c>
     </row>
@@ -12870,12 +12870,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>676</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3363</t>
+          <t>3796</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -12885,12 +12885,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -12905,12 +12905,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>8121</t>
+          <t>8358</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>19477</t>
+          <t>19598</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -12920,12 +12920,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>15,42%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -12940,12 +12940,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>9415</t>
+          <t>8766</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>22055</t>
+          <t>20270</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -12955,12 +12955,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>8,11%</t>
         </is>
       </c>
     </row>
@@ -12983,12 +12983,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>47467</t>
+          <t>46977</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>63779</t>
+          <t>63582</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -12998,12 +12998,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>38,65%</t>
+          <t>38,25%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>51,93%</t>
+          <t>51,77%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -13018,12 +13018,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>34810</t>
+          <t>35529</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>51803</t>
+          <t>51197</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -13033,12 +13033,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>27,39%</t>
+          <t>27,96%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>40,76%</t>
+          <t>40,29%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -13053,12 +13053,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>86277</t>
+          <t>87542</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>110179</t>
+          <t>109639</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -13068,12 +13068,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>34,52%</t>
+          <t>35,03%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>44,09%</t>
+          <t>43,87%</t>
         </is>
       </c>
     </row>
@@ -13096,12 +13096,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>57736</t>
+          <t>57354</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>73923</t>
+          <t>74221</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -13111,12 +13111,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>47,01%</t>
+          <t>46,7%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>60,19%</t>
+          <t>60,43%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -13131,12 +13131,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>62363</t>
+          <t>62362</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>79849</t>
+          <t>79429</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -13151,7 +13151,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>62,83%</t>
+          <t>62,5%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -13166,12 +13166,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>125617</t>
+          <t>125158</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>148901</t>
+          <t>148824</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -13181,12 +13181,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>50,27%</t>
+          <t>50,08%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>59,58%</t>
+          <t>59,55%</t>
         </is>
       </c>
     </row>
@@ -13326,12 +13326,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>585</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>13471</t>
+          <t>13409</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -13341,12 +13341,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -13361,12 +13361,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>508</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>4188</t>
+          <t>4614</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -13376,12 +13376,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -13396,12 +13396,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>2181</t>
+          <t>2131</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>15038</t>
+          <t>14998</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -13411,12 +13411,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>5,56%</t>
         </is>
       </c>
     </row>
@@ -13439,12 +13439,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>53913</t>
+          <t>54289</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>73547</t>
+          <t>73629</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -13454,12 +13454,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>38,68%</t>
+          <t>38,95%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>52,77%</t>
+          <t>52,83%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -13474,12 +13474,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>42602</t>
+          <t>42534</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>59332</t>
+          <t>59481</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -13489,12 +13489,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>32,68%</t>
+          <t>32,63%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>45,52%</t>
+          <t>45,63%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -13509,12 +13509,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>101721</t>
+          <t>101243</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>127503</t>
+          <t>127072</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -13524,12 +13524,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>37,72%</t>
+          <t>37,54%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>47,27%</t>
+          <t>47,11%</t>
         </is>
       </c>
     </row>
@@ -13552,12 +13552,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>61622</t>
+          <t>60851</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>80851</t>
+          <t>80039</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -13567,12 +13567,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>44,22%</t>
+          <t>43,66%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>58,01%</t>
+          <t>57,43%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -13587,12 +13587,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>69585</t>
+          <t>69458</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>86105</t>
+          <t>85985</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -13602,12 +13602,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>53,39%</t>
+          <t>53,29%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>66,06%</t>
+          <t>65,97%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -13622,12 +13622,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>136184</t>
+          <t>136008</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>161776</t>
+          <t>162305</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -13637,12 +13637,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>50,49%</t>
+          <t>50,43%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>59,98%</t>
+          <t>60,18%</t>
         </is>
       </c>
     </row>
@@ -13787,7 +13787,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13213</t>
+          <t>12794</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -13802,7 +13802,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -13817,12 +13817,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>454</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>4167</t>
+          <t>4356</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -13837,7 +13837,7 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -13852,12 +13852,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>1079</t>
+          <t>1409</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>11695</t>
+          <t>12577</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -13867,12 +13867,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>5,31%</t>
         </is>
       </c>
     </row>
@@ -13895,12 +13895,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>41623</t>
+          <t>41977</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>59505</t>
+          <t>59387</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -13910,12 +13910,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>35,5%</t>
+          <t>35,8%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>50,75%</t>
+          <t>50,64%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -13930,12 +13930,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>34278</t>
+          <t>34498</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>49688</t>
+          <t>49920</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -13945,12 +13945,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>28,68%</t>
+          <t>28,86%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>41,57%</t>
+          <t>41,76%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -13965,12 +13965,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>80370</t>
+          <t>80954</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>103369</t>
+          <t>105441</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -13980,12 +13980,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>33,94%</t>
+          <t>34,19%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>43,65%</t>
+          <t>44,53%</t>
         </is>
       </c>
     </row>
@@ -14008,12 +14008,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>55119</t>
+          <t>55574</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>72500</t>
+          <t>72703</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -14023,12 +14023,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>47,01%</t>
+          <t>47,39%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>61,83%</t>
+          <t>62,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -14043,12 +14043,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>68531</t>
+          <t>68416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>83602</t>
+          <t>83752</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -14058,12 +14058,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>57,33%</t>
+          <t>57,24%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>69,94%</t>
+          <t>70,07%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -14078,12 +14078,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>129333</t>
+          <t>128398</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>152899</t>
+          <t>151980</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -14093,12 +14093,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>54,62%</t>
+          <t>54,22%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>64,57%</t>
+          <t>64,18%</t>
         </is>
       </c>
     </row>
@@ -14243,7 +14243,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9929</t>
+          <t>9412</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -14258,7 +14258,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -14273,12 +14273,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>613</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>4829</t>
+          <t>4491</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -14288,12 +14288,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -14308,12 +14308,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>1224</t>
+          <t>1106</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>12328</t>
+          <t>10960</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -14323,12 +14323,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>5,16%</t>
         </is>
       </c>
     </row>
@@ -14351,12 +14351,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>30980</t>
+          <t>30448</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>47123</t>
+          <t>46857</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -14366,12 +14366,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>31,61%</t>
+          <t>31,07%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>48,08%</t>
+          <t>47,81%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -14386,12 +14386,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>35895</t>
+          <t>35851</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>50552</t>
+          <t>51854</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -14401,12 +14401,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>31,36%</t>
+          <t>31,32%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>44,16%</t>
+          <t>45,3%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -14421,12 +14421,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>71240</t>
+          <t>70214</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>93268</t>
+          <t>93299</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -14436,12 +14436,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>33,53%</t>
+          <t>33,04%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>43,89%</t>
+          <t>43,91%</t>
         </is>
       </c>
     </row>
@@ -14464,12 +14464,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>48988</t>
+          <t>49608</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>65236</t>
+          <t>65898</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -14479,12 +14479,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>49,98%</t>
+          <t>50,61%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>66,56%</t>
+          <t>67,23%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -14499,12 +14499,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>61697</t>
+          <t>60971</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>77063</t>
+          <t>77090</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -14514,12 +14514,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>53,9%</t>
+          <t>53,26%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>67,32%</t>
+          <t>67,34%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -14534,12 +14534,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>115835</t>
+          <t>115410</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>138174</t>
+          <t>138898</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -14549,12 +14549,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>54,51%</t>
+          <t>54,31%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>65,03%</t>
+          <t>65,37%</t>
         </is>
       </c>
     </row>
@@ -14694,12 +14694,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>602</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>4811</t>
+          <t>5317</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -14709,12 +14709,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -14729,12 +14729,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>1618</t>
+          <t>1776</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>7208</t>
+          <t>7322</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -14744,12 +14744,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -14764,12 +14764,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>3140</t>
+          <t>3114</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>9904</t>
+          <t>10037</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -14779,12 +14779,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>6,39%</t>
         </is>
       </c>
     </row>
@@ -14807,12 +14807,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>25099</t>
+          <t>24625</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>37607</t>
+          <t>37852</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -14822,12 +14822,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>36,37%</t>
+          <t>35,69%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>54,5%</t>
+          <t>54,86%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -14842,12 +14842,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>31105</t>
+          <t>31296</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>44897</t>
+          <t>45450</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -14857,12 +14857,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>35,36%</t>
+          <t>35,58%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>51,04%</t>
+          <t>51,67%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -14877,12 +14877,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>60219</t>
+          <t>59322</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>79845</t>
+          <t>79114</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -14892,12 +14892,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>38,36%</t>
+          <t>37,79%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>50,87%</t>
+          <t>50,4%</t>
         </is>
       </c>
     </row>
@@ -14920,12 +14920,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>29369</t>
+          <t>29553</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>41897</t>
+          <t>42084</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -14935,12 +14935,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>42,56%</t>
+          <t>42,83%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>60,72%</t>
+          <t>60,99%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -14955,12 +14955,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>38903</t>
+          <t>38415</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>52860</t>
+          <t>52692</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -14970,12 +14970,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>44,22%</t>
+          <t>43,67%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>60,09%</t>
+          <t>59,9%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -14990,12 +14990,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>71831</t>
+          <t>71855</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>90904</t>
+          <t>91264</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -15005,12 +15005,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>45,76%</t>
+          <t>45,78%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>57,91%</t>
+          <t>58,14%</t>
         </is>
       </c>
     </row>
@@ -15150,12 +15150,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>108</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2250</t>
+          <t>2174</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -15165,12 +15165,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -15185,12 +15185,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>13333</t>
+          <t>13320</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>24940</t>
+          <t>24277</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -15200,12 +15200,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>22,15%</t>
+          <t>21,56%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -15220,12 +15220,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>13935</t>
+          <t>13779</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>25763</t>
+          <t>26138</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -15235,12 +15235,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>14,19%</t>
+          <t>14,39%</t>
         </is>
       </c>
     </row>
@@ -15263,12 +15263,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>31351</t>
+          <t>31134</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>43003</t>
+          <t>42575</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -15278,12 +15278,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>45,43%</t>
+          <t>45,12%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>62,32%</t>
+          <t>61,7%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -15298,12 +15298,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>53127</t>
+          <t>52765</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>68780</t>
+          <t>68925</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -15313,12 +15313,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>47,18%</t>
+          <t>46,86%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>61,08%</t>
+          <t>61,21%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -15333,12 +15333,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>88965</t>
+          <t>87095</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>108000</t>
+          <t>108030</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -15348,12 +15348,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>48,99%</t>
+          <t>47,96%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>59,47%</t>
+          <t>59,48%</t>
         </is>
       </c>
     </row>
@@ -15376,12 +15376,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>25417</t>
+          <t>25957</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>37054</t>
+          <t>37303</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -15391,12 +15391,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>36,83%</t>
+          <t>37,62%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>53,7%</t>
+          <t>54,06%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -15411,12 +15411,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>26720</t>
+          <t>26892</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>40402</t>
+          <t>41007</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -15426,12 +15426,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>23,73%</t>
+          <t>23,88%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>35,88%</t>
+          <t>36,42%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -15446,12 +15446,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>55759</t>
+          <t>55494</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>74122</t>
+          <t>73987</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -15461,12 +15461,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>30,7%</t>
+          <t>30,56%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>40,81%</t>
+          <t>40,74%</t>
         </is>
       </c>
     </row>
@@ -15606,12 +15606,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>27630</t>
+          <t>28063</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>46954</t>
+          <t>47386</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -15621,12 +15621,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -15641,12 +15641,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>53036</t>
+          <t>53222</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>74141</t>
+          <t>76391</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -15656,12 +15656,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -15676,12 +15676,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>85774</t>
+          <t>85076</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>115070</t>
+          <t>115548</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -15691,12 +15691,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>8,06%</t>
         </is>
       </c>
     </row>
@@ -15719,12 +15719,12 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>276434</t>
+          <t>276987</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>318033</t>
+          <t>316987</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -15734,12 +15734,12 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>40,64%</t>
+          <t>40,72%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>46,76%</t>
+          <t>46,61%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -15754,12 +15754,12 @@
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>275183</t>
+          <t>274737</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>316424</t>
+          <t>317591</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -15769,12 +15769,12 @@
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>36,52%</t>
+          <t>36,46%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>41,99%</t>
+          <t>42,15%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -15789,12 +15789,12 @@
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>563101</t>
+          <t>565774</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>622949</t>
+          <t>621717</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -15804,12 +15804,12 @@
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>39,28%</t>
+          <t>39,46%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>43,45%</t>
+          <t>43,36%</t>
         </is>
       </c>
     </row>
@@ -15832,12 +15832,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>326649</t>
+          <t>326978</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>368390</t>
+          <t>365954</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -15847,12 +15847,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>48,03%</t>
+          <t>48,07%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>54,16%</t>
+          <t>53,81%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -15867,12 +15867,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>373426</t>
+          <t>373538</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>413465</t>
+          <t>416193</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -15882,12 +15882,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>49,56%</t>
+          <t>49,57%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>54,87%</t>
+          <t>55,23%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -15902,12 +15902,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>713471</t>
+          <t>712093</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>769708</t>
+          <t>766660</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -15917,12 +15917,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>49,76%</t>
+          <t>49,67%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>53,69%</t>
+          <t>53,47%</t>
         </is>
       </c>
     </row>
